--- a/tabela/lista-envio.xlsx
+++ b/tabela/lista-envio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S946"/>
+  <dimension ref="A1:S947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Presente</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -25318,7 +25318,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Presente</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -25381,7 +25381,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Presente</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -59433,6 +59433,53 @@
       <c r="R946" t="inlineStr"/>
       <c r="S946" t="inlineStr"/>
     </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>1000945</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>08191442906</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>marcelo</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>familia</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>44988620946</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr"/>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
+      <c r="N947" t="inlineStr"/>
+      <c r="O947" t="inlineStr"/>
+      <c r="P947" t="inlineStr"/>
+      <c r="Q947" t="inlineStr"/>
+      <c r="R947" t="inlineStr"/>
+      <c r="S947" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabela/lista-envio.xlsx
+++ b/tabela/lista-envio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S984"/>
+  <dimension ref="A1:S985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62499,6 +62499,53 @@
       <c r="R984" t="inlineStr"/>
       <c r="S984" t="inlineStr"/>
     </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>1000984</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>111222331151</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>marcelo</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>familia</t>
+        </is>
+      </c>
+      <c r="F985" t="inlineStr">
+        <is>
+          <t>988620946</t>
+        </is>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr"/>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+      <c r="N985" t="inlineStr"/>
+      <c r="O985" t="inlineStr"/>
+      <c r="P985" t="inlineStr"/>
+      <c r="Q985" t="inlineStr"/>
+      <c r="R985" t="inlineStr"/>
+      <c r="S985" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tabela/lista-envio.xlsx
+++ b/tabela/lista-envio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S985"/>
+  <dimension ref="A1:S986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62546,6 +62546,53 @@
       <c r="R985" t="inlineStr"/>
       <c r="S985" t="inlineStr"/>
     </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>1000985</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>123123123123</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>marcelo</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>familia</t>
+        </is>
+      </c>
+      <c r="F986" t="inlineStr">
+        <is>
+          <t>44988620946</t>
+        </is>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr"/>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+      <c r="N986" t="inlineStr"/>
+      <c r="O986" t="inlineStr"/>
+      <c r="P986" t="inlineStr"/>
+      <c r="Q986" t="inlineStr"/>
+      <c r="R986" t="inlineStr"/>
+      <c r="S986" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
